--- a/public/download/user.xlsx
+++ b/public/download/user.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="所有用户信息表" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -422,22 +422,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>胡帅博</v>
+        <v>卢俊辉</v>
       </c>
       <c r="B2" t="str">
         <v>123456</v>
       </c>
       <c r="C2" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="str">
         <v>男</v>
       </c>
       <c r="E2" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F2" t="str">
-        <v>http://localhost:4001/upload/1569416282994.png</v>
+        <v>http://localhost:4001/upload/1569416948455.png</v>
       </c>
       <c r="G2" t="str">
         <v>河南科技学院</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>卢俊辉</v>
+        <v>王冰</v>
       </c>
       <c r="B3" t="str">
         <v>123456</v>
@@ -460,13 +460,13 @@
         <v>21</v>
       </c>
       <c r="D3" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="E3" t="str">
         <v>2000-10-15</v>
       </c>
       <c r="F3" t="str">
-        <v>http://localhost:4001/upload/1569416948455.png</v>
+        <v>http://localhost:4001/upload/1569417012871.jpeg</v>
       </c>
       <c r="G3" t="str">
         <v>河南科技学院</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>王冰</v>
+        <v>王静晓</v>
       </c>
       <c r="B4" t="str">
         <v>123456</v>
@@ -492,10 +492,10 @@
         <v>女</v>
       </c>
       <c r="E4" t="str">
-        <v>2000-10-15</v>
+        <v>1998-05-14</v>
       </c>
       <c r="F4" t="str">
-        <v>http://localhost:4001/upload/1569417012871.jpeg</v>
+        <v>http://localhost:4001/upload/1569417071679.jpg</v>
       </c>
       <c r="G4" t="str">
         <v>河南科技学院</v>
@@ -509,22 +509,22 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>王静晓</v>
+        <v>白瑞娜</v>
       </c>
       <c r="B5" t="str">
         <v>123456</v>
       </c>
       <c r="C5" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="str">
         <v>女</v>
       </c>
       <c r="E5" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F5" t="str">
-        <v>http://localhost:4001/upload/1569417071679.jpg</v>
+        <v>http://localhost:4001/upload/1569417101797.png</v>
       </c>
       <c r="G5" t="str">
         <v>河南科技学院</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>白瑞娜</v>
+        <v>樊世杰</v>
       </c>
       <c r="B6" t="str">
         <v>123456</v>
@@ -547,13 +547,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="E6" t="str">
-        <v>2000-10-15</v>
+        <v>1998-05-14</v>
       </c>
       <c r="F6" t="str">
-        <v>http://localhost:4001/upload/1569417101797.png</v>
+        <v>http://localhost:4001/upload/1569417319356.jpg</v>
       </c>
       <c r="G6" t="str">
         <v>河南科技学院</v>
@@ -567,22 +567,22 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>樊世杰</v>
+        <v>武凯焱</v>
       </c>
       <c r="B7" t="str">
         <v>123456</v>
       </c>
       <c r="C7" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="str">
         <v>男</v>
       </c>
       <c r="E7" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F7" t="str">
-        <v>http://localhost:4001/upload/1569417319356.jpg</v>
+        <v>http://localhost:4001/upload/1569417342680.jpg</v>
       </c>
       <c r="G7" t="str">
         <v>河南科技学院</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>武凯焱</v>
+        <v>胡亚星</v>
       </c>
       <c r="B8" t="str">
         <v>123456</v>
       </c>
       <c r="C8" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="str">
         <v>男</v>
@@ -611,7 +611,7 @@
         <v>2000-10-15</v>
       </c>
       <c r="F8" t="str">
-        <v>http://localhost:4001/upload/1569417342680.jpg</v>
+        <v>http://localhost:4001/upload/1569417364487.jpg</v>
       </c>
       <c r="G8" t="str">
         <v>河南科技学院</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>胡亚星</v>
+        <v>白钰航</v>
       </c>
       <c r="B9" t="str">
         <v>123456</v>
       </c>
       <c r="C9" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="str">
         <v>男</v>
@@ -640,7 +640,7 @@
         <v>2000-10-15</v>
       </c>
       <c r="F9" t="str">
-        <v>http://localhost:4001/upload/1569417364487.jpg</v>
+        <v>http://localhost:4001/upload/1569490993761.png</v>
       </c>
       <c r="G9" t="str">
         <v>河南科技学院</v>
@@ -654,22 +654,22 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>白钰航</v>
+        <v>王耀兴</v>
       </c>
       <c r="B10" t="str">
         <v>123456</v>
       </c>
       <c r="C10" t="str">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="str">
         <v>男</v>
       </c>
       <c r="E10" t="str">
-        <v>2000-10-15</v>
+        <v>1998-05-14</v>
       </c>
       <c r="F10" t="str">
-        <v>http://localhost:4001/upload/1569490993761.png</v>
+        <v>http://localhost:4001/upload/1569491027529.jpg</v>
       </c>
       <c r="G10" t="str">
         <v>河南科技学院</v>
@@ -683,22 +683,22 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>王耀兴</v>
+        <v>韩雪</v>
       </c>
       <c r="B11" t="str">
         <v>123456</v>
       </c>
       <c r="C11" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="E11" t="str">
         <v>1998-05-14</v>
       </c>
       <c r="F11" t="str">
-        <v>http://localhost:4001/upload/1569491027529.jpg</v>
+        <v>http://localhost:4001/upload/1569491058042.jpg</v>
       </c>
       <c r="G11" t="str">
         <v>河南科技学院</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>韩雪</v>
+        <v>张易兴</v>
       </c>
       <c r="B12" t="str">
         <v>123456</v>
@@ -721,13 +721,13 @@
         <v>21</v>
       </c>
       <c r="D12" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="E12" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F12" t="str">
-        <v>http://localhost:4001/upload/1569491058042.jpg</v>
+        <v>http://localhost:4001/upload/1569491084754.jpg</v>
       </c>
       <c r="G12" t="str">
         <v>河南科技学院</v>
@@ -741,22 +741,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>张易兴</v>
+        <v>陈红帆</v>
       </c>
       <c r="B13" t="str">
         <v>123456</v>
       </c>
       <c r="C13" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="E13" t="str">
-        <v>2000-10-15</v>
+        <v>1998-05-14</v>
       </c>
       <c r="F13" t="str">
-        <v>http://localhost:4001/upload/1569491084754.jpg</v>
+        <v>http://localhost:4001/upload/1569491109070.png</v>
       </c>
       <c r="G13" t="str">
         <v>河南科技学院</v>
@@ -770,22 +770,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>陈红帆</v>
+        <v>张永红</v>
       </c>
       <c r="B14" t="str">
         <v>123456</v>
       </c>
       <c r="C14" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="str">
         <v>女</v>
       </c>
       <c r="E14" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F14" t="str">
-        <v>http://localhost:4001/upload/1569491109070.png</v>
+        <v>http://localhost:4001/upload/1569491281528.jpg</v>
       </c>
       <c r="G14" t="str">
         <v>河南科技学院</v>
@@ -799,22 +799,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>张永红</v>
+        <v>蒋靓峣</v>
       </c>
       <c r="B15" t="str">
         <v>123456</v>
       </c>
       <c r="C15" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="str">
         <v>女</v>
       </c>
       <c r="E15" t="str">
-        <v>2000-10-15</v>
+        <v>1998-05-14</v>
       </c>
       <c r="F15" t="str">
-        <v>http://localhost:4001/upload/1569491281528.jpg</v>
+        <v>http://localhost:4001/upload/1569491308638.jpg</v>
       </c>
       <c r="G15" t="str">
         <v>河南科技学院</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>蒋靓峣</v>
+        <v>谢兴博</v>
       </c>
       <c r="B16" t="str">
         <v>123456</v>
@@ -837,13 +837,13 @@
         <v>20</v>
       </c>
       <c r="D16" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="E16" t="str">
         <v>1998-05-14</v>
       </c>
       <c r="F16" t="str">
-        <v>http://localhost:4001/upload/1569491308638.jpg</v>
+        <v>http://localhost:4001/upload/1569491330720.png</v>
       </c>
       <c r="G16" t="str">
         <v>河南科技学院</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>谢兴博</v>
+        <v>王言</v>
       </c>
       <c r="B17" t="str">
         <v>123456</v>
@@ -872,7 +872,7 @@
         <v>1998-05-14</v>
       </c>
       <c r="F17" t="str">
-        <v>http://localhost:4001/upload/1569491330720.png</v>
+        <v>http://localhost:4001/upload/1569491357115.jpg</v>
       </c>
       <c r="G17" t="str">
         <v>河南科技学院</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>王言</v>
+        <v>孙佳乐</v>
       </c>
       <c r="B18" t="str">
         <v>123456</v>
@@ -898,10 +898,10 @@
         <v>男</v>
       </c>
       <c r="E18" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F18" t="str">
-        <v>http://localhost:4001/upload/1569491357115.jpg</v>
+        <v>http://localhost:4001/upload/1569491390086.jpg</v>
       </c>
       <c r="G18" t="str">
         <v>河南科技学院</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>孙佳乐</v>
+        <v>周士森</v>
       </c>
       <c r="B19" t="str">
         <v>123456</v>
@@ -930,7 +930,7 @@
         <v>2000-10-15</v>
       </c>
       <c r="F19" t="str">
-        <v>http://localhost:4001/upload/1569491390086.jpg</v>
+        <v>http://localhost:4001/upload/1569491446078.jpg</v>
       </c>
       <c r="G19" t="str">
         <v>河南科技学院</v>
@@ -944,22 +944,22 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>周士森</v>
+        <v>沈研</v>
       </c>
       <c r="B20" t="str">
         <v>123456</v>
       </c>
       <c r="C20" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="str">
         <v>男</v>
       </c>
       <c r="E20" t="str">
-        <v>2000-10-15</v>
+        <v>1998-05-14</v>
       </c>
       <c r="F20" t="str">
-        <v>http://localhost:4001/upload/1569491446078.jpg</v>
+        <v>http://localhost:4001/upload/1569491474410.jpg</v>
       </c>
       <c r="G20" t="str">
         <v>河南科技学院</v>
@@ -973,22 +973,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>沈研</v>
+        <v>王岩若</v>
       </c>
       <c r="B21" t="str">
         <v>123456</v>
       </c>
       <c r="C21" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="E21" t="str">
-        <v>1998-05-14</v>
+        <v>2000-10-15</v>
       </c>
       <c r="F21" t="str">
-        <v>http://localhost:4001/upload/1569491474410.jpg</v>
+        <v>http://localhost:4001/upload/1569491519343.png</v>
       </c>
       <c r="G21" t="str">
         <v>河南科技学院</v>
@@ -1002,22 +1002,22 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>王岩若</v>
+        <v>王福坤</v>
       </c>
       <c r="B22" t="str">
         <v>123456</v>
       </c>
       <c r="C22" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="E22" t="str">
         <v>2000-10-15</v>
       </c>
       <c r="F22" t="str">
-        <v>http://localhost:4001/upload/1569491519343.png</v>
+        <v>http://localhost:4001/upload/1569491606615.jpg</v>
       </c>
       <c r="G22" t="str">
         <v>河南科技学院</v>
@@ -1031,22 +1031,22 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>王福坤</v>
+        <v>胡帅博</v>
       </c>
       <c r="B23" t="str">
         <v>123456</v>
       </c>
       <c r="C23" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="str">
         <v>男</v>
       </c>
       <c r="E23" t="str">
-        <v>2000-10-15</v>
+        <v>1997-10-19</v>
       </c>
       <c r="F23" t="str">
-        <v>http://localhost:4001/upload/1569491606615.jpg</v>
+        <v>http://localhost:4001/upload/1569559595441.png</v>
       </c>
       <c r="G23" t="str">
         <v>河南科技学院</v>
